--- a/result_161101(50_TOA).xlsx
+++ b/result_161101(50_TOA).xlsx
@@ -463,7 +463,7 @@
   <dimension ref="E1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,15 +643,19 @@
         <v>10</v>
       </c>
       <c r="P2">
+        <f>I1</f>
         <v>0.9201999999999998</v>
       </c>
       <c r="Q2">
+        <f>I2</f>
         <v>0.93630352303522968</v>
       </c>
       <c r="R2">
+        <f>I3</f>
         <v>0.9734575177709951</v>
       </c>
       <c r="S2">
+        <f>I4</f>
         <v>0.95441172998477219</v>
       </c>
     </row>
@@ -738,15 +742,19 @@
         <v>20</v>
       </c>
       <c r="P3">
+        <f>J1</f>
         <v>0.94359999999999944</v>
       </c>
       <c r="Q3">
+        <f>J2</f>
         <v>0.96321951219512147</v>
       </c>
       <c r="R3">
+        <f>J3</f>
         <v>0.97349677817133196</v>
       </c>
       <c r="S3">
+        <f>J4</f>
         <v>0.96822231711195172</v>
       </c>
     </row>
@@ -833,15 +841,19 @@
         <v>30</v>
       </c>
       <c r="P4">
+        <f>K1</f>
         <v>0.92906666666666626</v>
       </c>
       <c r="Q4">
+        <f>K2</f>
         <v>0.9467154471544712</v>
       </c>
       <c r="R4">
+        <f>K3</f>
         <v>0.9732573349844108</v>
       </c>
       <c r="S4">
+        <f>K4</f>
         <v>0.95969461781074583</v>
       </c>
     </row>
@@ -928,15 +940,19 @@
         <v>40</v>
       </c>
       <c r="P5">
+        <f>L1</f>
         <v>0.92824999999999958</v>
       </c>
       <c r="Q5">
+        <f>L2</f>
         <v>0.945361788617886</v>
       </c>
       <c r="R5">
+        <f>L3</f>
         <v>0.97366843822395843</v>
       </c>
       <c r="S5">
+        <f>L4</f>
         <v>0.95919936585573462</v>
       </c>
     </row>
@@ -1023,15 +1039,19 @@
         <v>50</v>
       </c>
       <c r="P6">
+        <f>M1</f>
         <v>0.92563999999999924</v>
       </c>
       <c r="Q6">
+        <f>M2</f>
         <v>0.94279457994579885</v>
       </c>
       <c r="R6">
+        <f>M3</f>
         <v>0.97324872179088051</v>
       </c>
       <c r="S6">
+        <f>M4</f>
         <v>0.95767197361975431</v>
       </c>
     </row>
@@ -1212,15 +1232,19 @@
         <v>10</v>
       </c>
       <c r="P9">
+        <f>I5</f>
         <v>0.96599999999999908</v>
       </c>
       <c r="Q9">
+        <f>I6</f>
         <v>0.98222222222222155</v>
       </c>
       <c r="R9">
+        <f>I7</f>
         <v>0.98031819449950786</v>
       </c>
       <c r="S9">
+        <f>I8</f>
         <v>0.98113734379783391</v>
       </c>
     </row>
@@ -1229,15 +1253,19 @@
         <v>20</v>
       </c>
       <c r="P10">
+        <f>J5</f>
         <v>0.87999999999999989</v>
       </c>
       <c r="Q10">
+        <f>J6</f>
         <v>0.87891598915989066</v>
       </c>
       <c r="R10">
+        <f>J7</f>
         <v>0.98544250433076264</v>
       </c>
       <c r="S10">
+        <f>J8</f>
         <v>0.92892716039090817</v>
       </c>
     </row>
@@ -1246,15 +1274,19 @@
         <v>30</v>
       </c>
       <c r="P11">
+        <f>K5</f>
         <v>0.92399999999999971</v>
       </c>
       <c r="Q11">
+        <f>K6</f>
         <v>0.93490514905149014</v>
       </c>
       <c r="R11">
+        <f>K7</f>
         <v>0.97917593528816949</v>
       </c>
       <c r="S11">
+        <f>K8</f>
         <v>0.95635773336922725</v>
       </c>
     </row>
@@ -1263,15 +1295,19 @@
         <v>40</v>
       </c>
       <c r="P12">
+        <f>L5</f>
         <v>0.92199999999999971</v>
       </c>
       <c r="Q12">
+        <f>L6</f>
         <v>0.91934959349593459</v>
       </c>
       <c r="R12">
+        <f>L7</f>
         <v>0.99296788482834974</v>
       </c>
       <c r="S12">
+        <f>L8</f>
         <v>0.95466040630232119</v>
       </c>
     </row>
@@ -1280,15 +1316,19 @@
         <v>50</v>
       </c>
       <c r="P13">
+        <f>M5</f>
         <v>0.94399999999999906</v>
       </c>
       <c r="Q13">
+        <f>M6</f>
         <v>0.94178861788617851</v>
       </c>
       <c r="R13">
+        <f>M7</f>
         <v>0.99534883720930212</v>
       </c>
       <c r="S13">
+        <f>M8</f>
         <v>0.96777138882040037</v>
       </c>
     </row>
